--- a/biology/Histoire de la zoologie et de la botanique/Charles_Girou_de_Buzareingues/Charles_Girou_de_Buzareingues.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Girou_de_Buzareingues/Charles_Girou_de_Buzareingues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis François Charles Girou de Buzareingues est un agronome et physiologiste né à Saint-Geniez-d'Olt (Rouergue) le 1er mars 1773 et mort au château de Buzareingues le 25 juillet 1856.
 </t>
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sa famille
-La famille Girou appartient à la bourgeoisie ruthénoise et est connue à Rodez depuis la fin du XIVe siècle. Un Girou est meunier à Layoule en 1387, Jean Girou est procureur de la cité de Rodez en 1658 et Pierre Girou est consul de Rodez en 1662-1663[1].
+          <t>Sa famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Girou appartient à la bourgeoisie ruthénoise et est connue à Rodez depuis la fin du XIVe siècle. Un Girou est meunier à Layoule en 1387, Jean Girou est procureur de la cité de Rodez en 1658 et Pierre Girou est consul de Rodez en 1662-1663.
 Son père, Alexandre Girou de Buzareingues, est membre de l'assemblée départementale de l'Aveyron en 1789 et 1790 et l'un des fondateurs de la Société centrale d'agriculture de l'Aveyron.
-Père du député Louis Girou de Buzareingues, Charles Girou de Buzareingues est le grand-père des épouses de Jules Péan et de Maurice Oudot de Dainville. En 1921, Marie Girou de Buzareingues est mariée à Henry Bedel (1895-1965), officier, maire de Buzeins, expert agricole et foncier, chroniqueur, auteur d'écrits sur le Rouergue[2], secrétaire de l'Action française et membre de la Société des lettres, sciences et arts de l'Aveyron. Par adoption le nom de Girou de Buzareingues est ainsi transmis à la famille Bedel[3], d'où est issu l'avocat François Bedel Girou de Buzareingues, président de la Conférence des bâtonniers et de l'Académie des sciences et lettres de Montpellier. Les Bedel Girou de Buzareingues sont toujours propriétaires du château de Buzareingues.
-L'inventeur et l'expérimentateur
-On lui doit l'invention d'un micromètre à laine et de nombreuses expériences d'ensemencement et de croisement des races qu'il réalisa dans sa propriété de Buzareingues en Aveyron.
-Il introduisit le premier en Rouergue les moutons mérinos, les vaches suisses, les vaches asiatiques sans cornes, le premier étalon arabe. Il possédait un haras.
-Le savant
-Il s'intéresse à la philosophie et à l'économie rurale.
-Fondateur du comice agricole de Sévérac-le-Château. 
-Il est membre du Conseil central d’agriculture, membre de la Société linéenne, membre de la Société centrale d’agriculture de la Seine et de celle de l'Aveyron, de la Société des lettres, sciences et arts de l'Aveyron, membre correspondant à l’Académie royale des sciences en 1826 (section économie rurale) et de l'Institut de France.
-L'homme politique
-Membre du conseil général de l'Aveyron durant quatre années, il est maire de Buzeins et de Gaillac-d'Aveyron de 1802 à 1830. Il est candidat sans succès à la députation en 1831.
+Père du député Louis Girou de Buzareingues, Charles Girou de Buzareingues est le grand-père des épouses de Jules Péan et de Maurice Oudot de Dainville. En 1921, Marie Girou de Buzareingues est mariée à Henry Bedel (1895-1965), officier, maire de Buzeins, expert agricole et foncier, chroniqueur, auteur d'écrits sur le Rouergue, secrétaire de l'Action française et membre de la Société des lettres, sciences et arts de l'Aveyron. Par adoption le nom de Girou de Buzareingues est ainsi transmis à la famille Bedel, d'où est issu l'avocat François Bedel Girou de Buzareingues, président de la Conférence des bâtonniers et de l'Académie des sciences et lettres de Montpellier. Les Bedel Girou de Buzareingues sont toujours propriétaires du château de Buzareingues.
 </t>
         </is>
       </c>
@@ -551,10 +559,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'inventeur et l'expérimentateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui doit l'invention d'un micromètre à laine et de nombreuses expériences d'ensemencement et de croisement des races qu'il réalisa dans sa propriété de Buzareingues en Aveyron.
+Il introduisit le premier en Rouergue les moutons mérinos, les vaches suisses, les vaches asiatiques sans cornes, le premier étalon arabe. Il possédait un haras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Girou_de_Buzareingues</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Girou_de_Buzareingues</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le savant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'intéresse à la philosophie et à l'économie rurale.
+Fondateur du comice agricole de Sévérac-le-Château. 
+Il est membre du Conseil central d’agriculture, membre de la Société linéenne, membre de la Société centrale d’agriculture de la Seine et de celle de l'Aveyron, de la Société des lettres, sciences et arts de l'Aveyron, membre correspondant à l’Académie royale des sciences en 1826 (section économie rurale) et de l'Institut de France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Girou_de_Buzareingues</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Girou_de_Buzareingues</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'homme politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre du conseil général de l'Aveyron durant quatre années, il est maire de Buzeins et de Gaillac-d'Aveyron de 1802 à 1830. Il est candidat sans succès à la députation en 1831.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Girou_de_Buzareingues</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Girou_de_Buzareingues</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il collabore au Journal de l'Aveyron et au Ruthénois
 Mémoire sur les poils, Paris : Impr. de E. Duverger, 1821, in-8°, ou in-4°, 32 p.
